--- a/medicine/Sexualité et sexologie/Bracelet_du_sexe/Bracelet_du_sexe.xlsx
+++ b/medicine/Sexualité et sexologie/Bracelet_du_sexe/Bracelet_du_sexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bracelets du sexe sont un jeu de bracelets en silicone d'une variété de couleurs, soit une douzaine de bracelets peuvent être portée sur chaque poignet selon les règles du jeu. Il est particulièrement populaire au Brésil. À sa création, le jeu était nommé « les bracelets de l'amitié » avant de voir son usage modifié.
 </t>
@@ -511,10 +523,48 @@
           <t>Règle du jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeu réfère une fille et un garçon. Si l'un d'eux se fait arracher l'un de ses bracelets, il est obligé de faire ce que le code des couleurs des bracelets prévoit pour la couleur du bracelet arraché (selon le code du bracelet, il doit accorder une faveur à celui qui le lui a retiré).
-Code des bracelets
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bracelet_du_sexe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bracelet_du_sexe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Règle du jeu</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Code des bracelets</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Jaune : un baiser
 Rose : montrer ses seins
 Orange : mordre avec douceur
@@ -525,40 +575,7 @@
 Bleu : la fille pratique une fellation
 Rose clair : le garçon pratique un cunnilingus
 Noir : acte sexuel
-Doré : toutes les actions précitées[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bracelet_du_sexe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bracelet_du_sexe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Légende urbaine[Quoi ?]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bracelets du sexe ont eu un impact considérable auprès des établissements brésiliens. « Le phénomène existe depuis des années au Royaume-Uni sous le nom de shag bands, mais depuis 2009 cette mode fait un ravage dans les collèges et les lycées brésiliens[1]. »
-Au Brésil, ce jeu a fait l'objet de nombreux scandales.
-« La mairie de Rio de Janeiro a décidé, en 2010, de prendre les devants, en interdisant le port de ces bracelets dans toutes les écoles, collèges et lycées municipaux. Dans la foulée, le nouveau règlement interdit le port de la casquette et l’utilisation de téléphones portables et d’appareils électroniques comme les MP3 en salle de classe. Un mélange de prohibition qui a pour objectif de dédramatiser le thème de bracelet, tout en n'affrontant pas le véritable débat, celui de l’éducation sexuelle, qui laisse souvent à désirer dans les établissements publics. Le Brésil est, à cause du climat de violence ou par ignorance, l’un des champions du monde des maternités précoces[2]. »
+Doré : toutes les actions précitées.
 </t>
         </is>
       </c>
@@ -584,12 +601,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Légende urbaine[Quoi ?]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bracelets du sexe ont eu un impact considérable auprès des établissements brésiliens. « Le phénomène existe depuis des années au Royaume-Uni sous le nom de shag bands, mais depuis 2009 cette mode fait un ravage dans les collèges et les lycées brésiliens. »
+Au Brésil, ce jeu a fait l'objet de nombreux scandales.
+« La mairie de Rio de Janeiro a décidé, en 2010, de prendre les devants, en interdisant le port de ces bracelets dans toutes les écoles, collèges et lycées municipaux. Dans la foulée, le nouveau règlement interdit le port de la casquette et l’utilisation de téléphones portables et d’appareils électroniques comme les MP3 en salle de classe. Un mélange de prohibition qui a pour objectif de dédramatiser le thème de bracelet, tout en n'affrontant pas le véritable débat, celui de l’éducation sexuelle, qui laisse souvent à désirer dans les établissements publics. Le Brésil est, à cause du climat de violence ou par ignorance, l’un des champions du monde des maternités précoces. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bracelet_du_sexe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bracelet_du_sexe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Consentement et risque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce jeu pose très sérieusement la question du consentement depuis le viol d'une fille de 13 ans par 3 garçons au Panama. Depuis ce drame, le port de ce genre de bracelet est interdit dans les établissements scolaires de la ville de Rio et la vente est interdite aux mineurs à Londrina[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce jeu pose très sérieusement la question du consentement depuis le viol d'une fille de 13 ans par 3 garçons au Panama. Depuis ce drame, le port de ce genre de bracelet est interdit dans les établissements scolaires de la ville de Rio et la vente est interdite aux mineurs à Londrina.
 </t>
         </is>
       </c>
